--- a/docs/StructureDefinition-RelatedPersonMPI.xlsx
+++ b/docs/StructureDefinition-RelatedPersonMPI.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPersonMPI.xlsx
+++ b/docs/StructureDefinition-RelatedPersonMPI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="216">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -1153,10 +1157,10 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>35</v>
@@ -1167,10 +1171,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1181,7 +1185,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1190,19 +1194,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1252,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1278,10 +1282,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1292,7 +1296,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1301,16 +1305,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1361,19 +1365,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1387,10 +1391,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1401,28 +1405,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1472,19 +1476,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1498,10 +1502,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1512,7 +1516,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1524,16 +1528,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1559,13 +1563,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1583,19 +1587,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -1609,21 +1613,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -1635,16 +1639,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1694,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -1720,14 +1724,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1746,16 +1750,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1805,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1820,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -1831,14 +1835,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1857,16 +1861,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1916,7 +1920,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -1928,10 +1932,10 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>35</v>
@@ -1942,14 +1946,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1962,25 +1966,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2029,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2041,10 +2045,10 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>35</v>
@@ -2055,10 +2059,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2078,20 +2082,20 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -2140,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2152,24 +2156,24 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2180,100 +2184,100 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>35</v>
@@ -2281,10 +2285,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2292,32 +2296,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>35</v>
@@ -2366,36 +2370,36 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2403,32 +2407,32 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>35</v>
@@ -2453,13 +2457,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -2477,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2489,24 +2493,24 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2514,32 +2518,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -2588,7 +2592,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -2600,24 +2604,24 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2625,34 +2629,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -2701,7 +2705,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -2713,24 +2717,24 @@
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2741,7 +2745,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -2750,20 +2754,20 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>35</v>
@@ -2788,13 +2792,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -2812,36 +2816,36 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2852,7 +2856,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -2861,16 +2865,16 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2921,22 +2925,22 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
@@ -2947,10 +2951,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2958,32 +2962,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -3032,7 +3036,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3044,24 +3048,24 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3084,17 +3088,17 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -3143,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3155,24 +3159,24 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3180,13 +3184,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
@@ -3195,13 +3199,13 @@
         <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3252,25 +3256,25 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -3278,10 +3282,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3304,19 +3308,19 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -3365,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3377,10 +3381,10 @@
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3391,10 +3395,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3405,7 +3409,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3417,13 +3421,13 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3474,13 +3478,13 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
@@ -3489,7 +3493,7 @@
         <v>35</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -3500,14 +3504,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3526,16 +3530,16 @@
         <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3585,7 +3589,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -3597,10 +3601,10 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -3611,14 +3615,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3631,25 +3635,25 @@
         <v>35</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -3698,7 +3702,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -3710,10 +3714,10 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -3724,10 +3728,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3735,10 +3739,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -3750,19 +3754,19 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>35</v>
@@ -3787,13 +3791,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -3811,22 +3815,22 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -3837,10 +3841,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3851,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -3863,19 +3867,19 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -3924,22 +3928,22 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
